--- a/utilities/RTP/config_RTP2021/ModelRuns_RTP2021.xlsx
+++ b/utilities/RTP/config_RTP2021/ModelRuns_RTP2021.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\travel-model-one\utilities\RTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\travel-model-one\utilities\RTP\config_RTP2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6999A-B1CA-452D-860D-928043490CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F905B-94C3-4288-A08F-08AAB050B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="315" windowWidth="24300" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="0" windowWidth="25800" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$H$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$J$178</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="265">
   <si>
     <t>EEJ</t>
   </si>
@@ -805,6 +816,24 @@
   </si>
   <si>
     <t>BlueprintNetworks_64\net_2050_Alt2</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>2050 No Project</t>
+  </si>
+  <si>
+    <t>2050 EIR Alt1</t>
+  </si>
+  <si>
+    <t>2035 EIR Alt1</t>
+  </si>
+  <si>
+    <t>2035 EIR Alt2</t>
+  </si>
+  <si>
+    <t>2050 EIR Alt2</t>
   </si>
 </sst>
 </file>
@@ -1394,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1409,9 +1438,10 @@
     <col min="6" max="6" width="70.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" style="28" customWidth="1"/>
     <col min="9" max="9" width="49.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>40</v>
       </c>
@@ -1439,8 +1469,11 @@
       <c r="I1" s="45" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1493,9 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1481,8 +1515,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -1502,8 +1537,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -1523,8 +1559,9 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1544,8 +1581,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1565,8 +1603,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1586,8 +1625,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1607,8 +1647,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
@@ -1628,8 +1669,9 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
@@ -1649,8 +1691,9 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
@@ -1670,8 +1713,9 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
@@ -1691,8 +1735,9 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
@@ -1712,8 +1757,9 @@
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
@@ -1733,8 +1779,9 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -1754,8 +1801,9 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
@@ -1775,8 +1823,9 @@
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1845,9 @@
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
@@ -1817,8 +1867,9 @@
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
@@ -1840,8 +1891,9 @@
         <v>220</v>
       </c>
       <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>26</v>
       </c>
@@ -1861,8 +1913,9 @@
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
         <v>26</v>
       </c>
@@ -1888,8 +1941,9 @@
         <v>220</v>
       </c>
       <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="60"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -1917,8 +1971,12 @@
       <c r="I23" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="str">
+        <f>TEXT(2015,"##")</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
@@ -1944,8 +2002,9 @@
         <v>43</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1969,8 +2028,9 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>26</v>
       </c>
@@ -1994,8 +2054,9 @@
       </c>
       <c r="H26" s="64"/>
       <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="64"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="55" t="s">
         <v>26</v>
       </c>
@@ -2019,8 +2080,9 @@
       </c>
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="62"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>26</v>
       </c>
@@ -2044,8 +2106,9 @@
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>26</v>
       </c>
@@ -2071,8 +2134,9 @@
         <v>220</v>
       </c>
       <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>26</v>
       </c>
@@ -2100,8 +2164,12 @@
       <c r="I30" s="21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="21" t="str">
+        <f>_xlfn.CONCAT(B30," ",E30)</f>
+        <v>2025 No Project</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2193,9 @@
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>26</v>
       </c>
@@ -2152,8 +2221,9 @@
         <v>220</v>
       </c>
       <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>26</v>
       </c>
@@ -2179,8 +2249,12 @@
         <v>43</v>
       </c>
       <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="31" t="str">
+        <f>_xlfn.CONCAT(B33," Plan")</f>
+        <v>2025 Plan</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
         <v>26</v>
       </c>
@@ -2206,8 +2280,9 @@
         <v>220</v>
       </c>
       <c r="I34" s="43"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>26</v>
       </c>
@@ -2235,8 +2310,12 @@
       <c r="I35" s="21" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="21" t="str">
+        <f>_xlfn.CONCAT(B35," ",E35)</f>
+        <v>2030 No Project</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>26</v>
       </c>
@@ -2260,8 +2339,9 @@
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
@@ -2287,8 +2367,9 @@
         <v>220</v>
       </c>
       <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>26</v>
       </c>
@@ -2312,8 +2393,9 @@
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>26</v>
       </c>
@@ -2341,8 +2423,12 @@
       <c r="I39" s="31" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="31" t="str">
+        <f>_xlfn.CONCAT(B39," Plan")</f>
+        <v>2030 Plan</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
         <v>26</v>
       </c>
@@ -2362,8 +2448,9 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>26</v>
       </c>
@@ -2383,8 +2470,9 @@
       <c r="G41" s="17"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2492,9 @@
       <c r="G42" s="17"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>26</v>
       </c>
@@ -2431,8 +2520,9 @@
         <v>220</v>
       </c>
       <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>26</v>
       </c>
@@ -2460,8 +2550,9 @@
       <c r="I44" s="18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
         <v>26</v>
       </c>
@@ -2481,8 +2572,9 @@
       <c r="G45" s="33"/>
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>26</v>
       </c>
@@ -2502,8 +2594,9 @@
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>26</v>
       </c>
@@ -2523,8 +2616,9 @@
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>26</v>
       </c>
@@ -2544,8 +2638,9 @@
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>26</v>
       </c>
@@ -2569,8 +2664,9 @@
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>26</v>
       </c>
@@ -2594,8 +2690,9 @@
       </c>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>26</v>
       </c>
@@ -2619,8 +2716,9 @@
       </c>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="31"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
         <v>26</v>
       </c>
@@ -2644,8 +2742,9 @@
       </c>
       <c r="H52" s="43"/>
       <c r="I52" s="43"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="43"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>26</v>
       </c>
@@ -2669,8 +2768,9 @@
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>26</v>
       </c>
@@ -2694,8 +2794,9 @@
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>26</v>
       </c>
@@ -2719,8 +2820,9 @@
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>26</v>
       </c>
@@ -2744,8 +2846,9 @@
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>26</v>
       </c>
@@ -2769,8 +2872,9 @@
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>26</v>
       </c>
@@ -2794,8 +2898,9 @@
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>26</v>
       </c>
@@ -2819,8 +2924,9 @@
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>26</v>
       </c>
@@ -2846,8 +2952,9 @@
         <v>220</v>
       </c>
       <c r="I60" s="15"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>26</v>
       </c>
@@ -2871,8 +2978,9 @@
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>26</v>
       </c>
@@ -2900,8 +3008,12 @@
       <c r="I62" s="21" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="21" t="str">
+        <f>_xlfn.CONCAT(B62," ",E62)</f>
+        <v>2035 No Project</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
         <v>26</v>
       </c>
@@ -2921,8 +3033,9 @@
       <c r="G63" s="33"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="34"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="29" t="s">
         <v>26</v>
       </c>
@@ -2942,8 +3055,9 @@
       <c r="G64" s="30"/>
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="31"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>26</v>
       </c>
@@ -2963,8 +3077,9 @@
       <c r="G65" s="17"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>26</v>
       </c>
@@ -2984,8 +3099,9 @@
       <c r="G66" s="17"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>26</v>
       </c>
@@ -3009,8 +3125,9 @@
       </c>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>26</v>
       </c>
@@ -3034,8 +3151,9 @@
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>26</v>
       </c>
@@ -3059,8 +3177,9 @@
       </c>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>26</v>
       </c>
@@ -3084,8 +3203,9 @@
       </c>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>26</v>
       </c>
@@ -3109,8 +3229,9 @@
       </c>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>26</v>
       </c>
@@ -3136,8 +3257,9 @@
         <v>218</v>
       </c>
       <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="18"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>26</v>
       </c>
@@ -3161,8 +3283,9 @@
       </c>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="18"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>26</v>
       </c>
@@ -3186,8 +3309,9 @@
       </c>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="18"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>26</v>
       </c>
@@ -3211,8 +3335,9 @@
       </c>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
         <v>26</v>
       </c>
@@ -3236,8 +3361,9 @@
       </c>
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>26</v>
       </c>
@@ -3261,8 +3387,9 @@
       </c>
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>26</v>
       </c>
@@ -3286,8 +3413,9 @@
       </c>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="41" t="s">
         <v>26</v>
       </c>
@@ -3311,8 +3439,9 @@
       </c>
       <c r="H79" s="43"/>
       <c r="I79" s="43"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="43"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>26</v>
       </c>
@@ -3336,8 +3465,9 @@
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>26</v>
       </c>
@@ -3361,8 +3491,9 @@
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>26</v>
       </c>
@@ -3386,8 +3517,9 @@
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>26</v>
       </c>
@@ -3411,8 +3543,9 @@
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>26</v>
       </c>
@@ -3436,8 +3569,9 @@
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>26</v>
       </c>
@@ -3461,8 +3595,9 @@
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>26</v>
       </c>
@@ -3486,8 +3621,9 @@
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>26</v>
       </c>
@@ -3511,8 +3647,9 @@
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>26</v>
       </c>
@@ -3536,8 +3673,9 @@
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>26</v>
       </c>
@@ -3561,8 +3699,9 @@
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>26</v>
       </c>
@@ -3586,8 +3725,9 @@
       </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>26</v>
       </c>
@@ -3611,8 +3751,9 @@
       </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="15"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>26</v>
       </c>
@@ -3636,8 +3777,9 @@
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>26</v>
       </c>
@@ -3663,8 +3805,9 @@
         <v>220</v>
       </c>
       <c r="I93" s="15"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>26</v>
       </c>
@@ -3688,8 +3831,9 @@
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>26</v>
       </c>
@@ -3713,8 +3857,9 @@
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>26</v>
       </c>
@@ -3738,8 +3883,9 @@
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
         <v>26</v>
       </c>
@@ -3767,8 +3913,12 @@
       <c r="I97" s="21" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="21" t="str">
+        <f>_xlfn.CONCAT(B97," Plan")</f>
+        <v>2035 Plan</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="41" t="s">
         <v>26</v>
       </c>
@@ -3794,8 +3944,9 @@
         <v>220</v>
       </c>
       <c r="I98" s="43"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="43"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
         <v>26</v>
       </c>
@@ -3823,8 +3974,12 @@
       <c r="I99" s="21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="21" t="str">
+        <f>_xlfn.CONCAT(B99," ",E99)</f>
+        <v>2040 No Project</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>26</v>
       </c>
@@ -3850,8 +4005,9 @@
         <v>220</v>
       </c>
       <c r="I100" s="43"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="43"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>26</v>
       </c>
@@ -3875,8 +4031,9 @@
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>26</v>
       </c>
@@ -3900,8 +4057,9 @@
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>26</v>
       </c>
@@ -3925,8 +4083,9 @@
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>26</v>
       </c>
@@ -3954,8 +4113,12 @@
       <c r="I104" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="21" t="str">
+        <f>_xlfn.CONCAT(B104," Plan")</f>
+        <v>2040 Plan</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="35" t="s">
         <v>26</v>
       </c>
@@ -3975,8 +4138,9 @@
       <c r="G105" s="26"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="27"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
         <v>26</v>
       </c>
@@ -3996,8 +4160,9 @@
       <c r="G106" s="26"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>26</v>
       </c>
@@ -4021,8 +4186,9 @@
       </c>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="27"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>26</v>
       </c>
@@ -4046,8 +4212,9 @@
       </c>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
         <v>26</v>
       </c>
@@ -4071,8 +4238,9 @@
       </c>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="27"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>26</v>
       </c>
@@ -4096,8 +4264,9 @@
       </c>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="27"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="38" t="s">
         <v>26</v>
       </c>
@@ -4121,8 +4290,9 @@
       </c>
       <c r="H111" s="40"/>
       <c r="I111" s="40"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="40"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>26</v>
       </c>
@@ -4146,8 +4316,9 @@
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>26</v>
       </c>
@@ -4171,8 +4342,9 @@
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>26</v>
       </c>
@@ -4196,8 +4368,9 @@
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="15"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>26</v>
       </c>
@@ -4221,8 +4394,9 @@
       </c>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>26</v>
       </c>
@@ -4246,8 +4420,9 @@
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>26</v>
       </c>
@@ -4271,8 +4446,9 @@
       </c>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="15"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>26</v>
       </c>
@@ -4296,8 +4472,9 @@
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="15"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>26</v>
       </c>
@@ -4321,8 +4498,9 @@
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>26</v>
       </c>
@@ -4346,8 +4524,9 @@
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>26</v>
       </c>
@@ -4373,8 +4552,9 @@
         <v>220</v>
       </c>
       <c r="I121" s="15"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>26</v>
       </c>
@@ -4398,8 +4578,9 @@
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
         <v>26</v>
       </c>
@@ -4427,8 +4608,11 @@
       <c r="I123" s="21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>26</v>
       </c>
@@ -4448,8 +4632,9 @@
       <c r="G124" s="26"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="27"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="38" t="s">
         <v>26</v>
       </c>
@@ -4469,8 +4654,9 @@
       <c r="G125" s="39"/>
       <c r="H125" s="40"/>
       <c r="I125" s="40"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="40"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>26</v>
       </c>
@@ -4490,8 +4676,9 @@
       <c r="G126" s="26"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="27"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>26</v>
       </c>
@@ -4511,8 +4698,9 @@
       <c r="G127" s="26"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="27"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>26</v>
       </c>
@@ -4536,8 +4724,9 @@
       </c>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="27"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="25" t="s">
         <v>26</v>
       </c>
@@ -4561,8 +4750,9 @@
       </c>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="27"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="25" t="s">
         <v>26</v>
       </c>
@@ -4586,8 +4776,9 @@
       </c>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="27"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
         <v>26</v>
       </c>
@@ -4611,8 +4802,9 @@
       </c>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="27"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
         <v>26</v>
       </c>
@@ -4636,8 +4828,9 @@
       </c>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="27"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="25" t="s">
         <v>26</v>
       </c>
@@ -4661,8 +4854,9 @@
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="27"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="25" t="s">
         <v>26</v>
       </c>
@@ -4688,8 +4882,9 @@
         <v>218</v>
       </c>
       <c r="I134" s="27"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="27"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="41" t="s">
         <v>26</v>
       </c>
@@ -4713,8 +4908,9 @@
       </c>
       <c r="H135" s="43"/>
       <c r="I135" s="43"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="43"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>26</v>
       </c>
@@ -4738,8 +4934,9 @@
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>26</v>
       </c>
@@ -4763,8 +4960,9 @@
       </c>
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>26</v>
       </c>
@@ -4788,8 +4986,9 @@
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>26</v>
       </c>
@@ -4813,8 +5012,9 @@
       </c>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>26</v>
       </c>
@@ -4838,8 +5038,9 @@
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>26</v>
       </c>
@@ -4863,8 +5064,9 @@
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>26</v>
       </c>
@@ -4888,8 +5090,9 @@
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>26</v>
       </c>
@@ -4913,8 +5116,9 @@
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>26</v>
       </c>
@@ -4938,8 +5142,9 @@
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="13"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>26</v>
       </c>
@@ -4963,8 +5168,9 @@
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="13"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>26</v>
       </c>
@@ -4988,8 +5194,9 @@
       </c>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>26</v>
       </c>
@@ -5013,8 +5220,9 @@
       </c>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>26</v>
       </c>
@@ -5038,8 +5246,9 @@
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="15"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>26</v>
       </c>
@@ -5063,8 +5272,9 @@
       </c>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>26</v>
       </c>
@@ -5088,8 +5298,9 @@
       </c>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="15"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>26</v>
       </c>
@@ -5113,8 +5324,9 @@
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>26</v>
       </c>
@@ -5138,8 +5350,9 @@
       </c>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="15"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>26</v>
       </c>
@@ -5163,8 +5376,9 @@
       </c>
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="15"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>26</v>
       </c>
@@ -5188,8 +5402,9 @@
       </c>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="15"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>26</v>
       </c>
@@ -5215,8 +5430,9 @@
         <v>220</v>
       </c>
       <c r="I155" s="15"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="15"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>26</v>
       </c>
@@ -5240,8 +5456,9 @@
       </c>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="15"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>26</v>
       </c>
@@ -5265,8 +5482,9 @@
       </c>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="15"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="19" t="s">
         <v>26</v>
       </c>
@@ -5294,8 +5512,12 @@
       <c r="I158" s="21" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="21" t="str">
+        <f>_xlfn.CONCAT(B158," Plan")</f>
+        <v>2050 Plan</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>26</v>
       </c>
@@ -5319,8 +5541,9 @@
       </c>
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="9"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>26</v>
       </c>
@@ -5344,8 +5567,9 @@
       </c>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="9"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>26</v>
       </c>
@@ -5371,8 +5595,9 @@
         <v>220</v>
       </c>
       <c r="I161" s="9"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="9"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>26</v>
       </c>
@@ -5396,8 +5621,9 @@
       </c>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="9"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>26</v>
       </c>
@@ -5421,8 +5647,9 @@
       </c>
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="50" t="s">
         <v>26</v>
       </c>
@@ -5450,8 +5677,11 @@
       <c r="I164" s="50" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="53" t="s">
         <v>26</v>
       </c>
@@ -5475,8 +5705,9 @@
       </c>
       <c r="H165" s="53"/>
       <c r="I165" s="53"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" s="53"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>26</v>
       </c>
@@ -5500,8 +5731,9 @@
       </c>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
-    </row>
-    <row r="167" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>26</v>
       </c>
@@ -5527,8 +5759,9 @@
         <v>220</v>
       </c>
       <c r="I167" s="9"/>
-    </row>
-    <row r="168" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>26</v>
       </c>
@@ -5552,8 +5785,9 @@
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
-    </row>
-    <row r="169" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>26</v>
       </c>
@@ -5577,8 +5811,9 @@
       </c>
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
-    </row>
-    <row r="170" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="50" t="s">
         <v>26</v>
       </c>
@@ -5606,8 +5841,11 @@
       <c r="I170" s="50" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J170" s="50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="55" t="s">
         <v>26</v>
       </c>
@@ -5631,8 +5869,9 @@
       </c>
       <c r="H171" s="55"/>
       <c r="I171" s="55"/>
-    </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J171" s="55"/>
+    </row>
+    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>26</v>
       </c>
@@ -5658,8 +5897,9 @@
         <v>220</v>
       </c>
       <c r="I172" s="6"/>
-    </row>
-    <row r="173" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>26</v>
       </c>
@@ -5683,8 +5923,9 @@
       </c>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
-    </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="57" t="s">
         <v>26</v>
       </c>
@@ -5712,8 +5953,11 @@
       <c r="I174" s="57" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J174" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>26</v>
       </c>
@@ -5737,8 +5981,9 @@
       </c>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
-    </row>
-    <row r="176" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>26</v>
       </c>
@@ -5764,8 +6009,9 @@
         <v>220</v>
       </c>
       <c r="I176" s="6"/>
-    </row>
-    <row r="177" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>26</v>
       </c>
@@ -5789,8 +6035,9 @@
       </c>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="6"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>26</v>
       </c>
@@ -5818,8 +6065,12 @@
       <c r="I178" s="6" t="s">
         <v>258</v>
       </c>
+      <c r="J178" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/utilities/RTP/config_RTP2021/ModelRuns_RTP2021.xlsx
+++ b/utilities/RTP/config_RTP2021/ModelRuns_RTP2021.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\travel-model-one\utilities\RTP\config_RTP2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F905B-94C3-4288-A08F-08AAB050B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEA93A2-381A-4F4D-829C-1F828500603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="0" windowWidth="25800" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="1125" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$J$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$J$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="269">
   <si>
     <t>EEJ</t>
   </si>
@@ -834,6 +834,18 @@
   </si>
   <si>
     <t>2050 EIR Alt2</t>
+  </si>
+  <si>
+    <t>2050_TM152_FBP_PlusCrossing_24_Amd1</t>
+  </si>
+  <si>
+    <t>BlueprintNetworks_64_Amd1\net_2050_Blueprint</t>
+  </si>
+  <si>
+    <t>2035_TM152_FBP_Plus_24_Amd1</t>
+  </si>
+  <si>
+    <t>BlueprintNetworks_64_Amd1\net_2035_Blueprint</t>
   </si>
 </sst>
 </file>
@@ -955,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,6 +1087,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,9 +1147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1167,7 +1187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1273,7 +1293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1415,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1423,11 +1443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3886,126 +3906,131 @@
       <c r="J96" s="15"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C97" s="21" t="s">
+      <c r="A97" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="68">
+        <v>2035</v>
+      </c>
+      <c r="C97" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D97" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="21" t="s">
+      <c r="D97" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="G97" s="20" t="s">
+      <c r="G97" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="H97" s="21" t="s">
+      <c r="H97" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I97" s="21" t="s">
+      <c r="I97" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="J97" s="21" t="str">
+      <c r="J97" s="67" t="str">
         <f>_xlfn.CONCAT(B97," Plan")</f>
         <v>2035 Plan</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" s="42">
+      <c r="A98" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J98" s="21" t="str">
+        <f>_xlfn.CONCAT(B98," Plan Amd1")</f>
+        <v>2035 Plan Amd1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="42">
         <v>2040</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C99" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D98" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="43" t="s">
+      <c r="D99" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="43" t="s">
+      <c r="F99" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G98" s="42" t="s">
+      <c r="G99" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="H98" s="43" t="s">
+      <c r="H99" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="20">
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="20">
         <v>2040</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C100" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="21" t="s">
+      <c r="D100" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F100" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G99" s="20" t="s">
+      <c r="G100" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H99" s="21" t="s">
+      <c r="H100" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I99" s="21" t="s">
+      <c r="I100" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="J99" s="21" t="str">
-        <f>_xlfn.CONCAT(B99," ",E99)</f>
+      <c r="J100" s="21" t="str">
+        <f>_xlfn.CONCAT(B100," ",E100)</f>
         <v>2040 No Project</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="14">
-        <v>2040</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F100" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="G100" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="H100" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
@@ -4015,23 +4040,25 @@
         <v>2040</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="15" t="s">
+      <c r="E101" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
+      <c r="H101" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -4041,7 +4068,7 @@
         <v>2040</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>91</v>
@@ -4067,7 +4094,7 @@
         <v>2040</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>91</v>
@@ -4086,71 +4113,75 @@
       <c r="J103" s="15"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B104" s="20">
+      <c r="A104" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="14">
         <v>2040</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="20">
+        <v>2040</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D104" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F104" s="21" t="s">
+      <c r="D105" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G104" s="20" t="s">
+      <c r="G105" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="21" t="s">
+      <c r="H105" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I104" s="21" t="s">
+      <c r="I105" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="J104" s="21" t="str">
-        <f>_xlfn.CONCAT(B104," Plan")</f>
+      <c r="J105" s="21" t="str">
+        <f>_xlfn.CONCAT(B105," Plan")</f>
         <v>2040 Plan</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" s="36">
-        <v>2050</v>
-      </c>
-      <c r="C105" s="37" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="36">
+        <v>2050</v>
+      </c>
+      <c r="C106" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="26">
-        <v>2050</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E106" s="27" t="s">
@@ -4170,7 +4201,7 @@
         <v>2050</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>34</v>
@@ -4178,12 +4209,8 @@
       <c r="E107" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" s="26" t="s">
-        <v>65</v>
-      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
       <c r="J107" s="27"/>
@@ -4196,7 +4223,7 @@
         <v>2050</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D108" s="27" t="s">
         <v>34</v>
@@ -4222,7 +4249,7 @@
         <v>2050</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D109" s="27" t="s">
         <v>34</v>
@@ -4231,10 +4258,10 @@
         <v>7</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
@@ -4248,7 +4275,7 @@
         <v>2050</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110" s="27" t="s">
         <v>34</v>
@@ -4257,66 +4284,66 @@
         <v>7</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
       <c r="J110" s="27"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B111" s="39">
-        <v>2050</v>
-      </c>
-      <c r="C111" s="40" t="s">
+      <c r="A111" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="26">
+        <v>2050</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="39">
+        <v>2050</v>
+      </c>
+      <c r="C112" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D112" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E112" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F111" s="40" t="s">
+      <c r="F112" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G111" s="39" t="s">
+      <c r="G112" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" s="14">
-        <v>2050</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D112" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G112" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
@@ -4326,19 +4353,19 @@
         <v>2050</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E113" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G113" s="44" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
@@ -4352,7 +4379,7 @@
         <v>2050</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>91</v>
@@ -4361,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G114" s="44" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -4378,7 +4405,7 @@
         <v>2050</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>91</v>
@@ -4387,10 +4414,10 @@
         <v>7</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="G115" s="44" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
@@ -4404,7 +4431,7 @@
         <v>2050</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>91</v>
@@ -4415,7 +4442,7 @@
       <c r="F116" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="44" t="s">
         <v>137</v>
       </c>
       <c r="H116" s="15"/>
@@ -4430,7 +4457,7 @@
         <v>2050</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>91</v>
@@ -4456,7 +4483,7 @@
         <v>2050</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>91</v>
@@ -4465,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>137</v>
@@ -4482,7 +4509,7 @@
         <v>2050</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>91</v>
@@ -4491,10 +4518,10 @@
         <v>7</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
@@ -4508,7 +4535,7 @@
         <v>2050</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>91</v>
@@ -4517,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
@@ -4534,7 +4561,7 @@
         <v>2050</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>91</v>
@@ -4548,9 +4575,7 @@
       <c r="G121" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="H121" s="15" t="s">
-        <v>220</v>
-      </c>
+      <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
     </row>
@@ -4562,7 +4587,7 @@
         <v>2050</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>91</v>
@@ -4576,107 +4601,113 @@
       <c r="G122" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="H122" s="15"/>
+      <c r="H122" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" s="20">
-        <v>2050</v>
-      </c>
-      <c r="C123" s="21" t="s">
+      <c r="A123" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="14">
+        <v>2050</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="20">
+        <v>2050</v>
+      </c>
+      <c r="C124" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D123" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E123" s="21" t="s">
+      <c r="D124" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F124" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G123" s="20" t="s">
+      <c r="G124" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H123" s="21" t="s">
+      <c r="H124" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I123" s="21" t="s">
+      <c r="I124" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="J123" s="21" t="s">
+      <c r="J124" s="21" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B124" s="26">
-        <v>2050</v>
-      </c>
-      <c r="C124" s="27" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="26">
+        <v>2050</v>
+      </c>
+      <c r="C125" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D124" s="27" t="s">
+      <c r="D125" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E125" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F124" s="27"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B125" s="39">
-        <v>2050</v>
-      </c>
-      <c r="C125" s="40" t="s">
+      <c r="F125" s="27"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="39">
+        <v>2050</v>
+      </c>
+      <c r="C126" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="D126" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E126" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F125" s="40"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="40"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B126" s="26">
-        <v>2050</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E126" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F126" s="27"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
@@ -4686,7 +4717,7 @@
         <v>2050</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D127" s="27" t="s">
         <v>34</v>
@@ -4708,7 +4739,7 @@
         <v>2050</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>34</v>
@@ -4716,12 +4747,8 @@
       <c r="E128" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F128" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G128" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="F128" s="27"/>
+      <c r="G128" s="26"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
       <c r="J128" s="27"/>
@@ -4734,7 +4761,7 @@
         <v>2050</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>34</v>
@@ -4760,7 +4787,7 @@
         <v>2050</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>34</v>
@@ -4769,10 +4796,10 @@
         <v>38</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
@@ -4786,7 +4813,7 @@
         <v>2050</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>34</v>
@@ -4795,10 +4822,10 @@
         <v>38</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
@@ -4812,7 +4839,7 @@
         <v>2050</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>34</v>
@@ -4821,10 +4848,10 @@
         <v>38</v>
       </c>
       <c r="F132" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
@@ -4838,7 +4865,7 @@
         <v>2050</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>34</v>
@@ -4847,10 +4874,10 @@
         <v>38</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
@@ -4864,7 +4891,7 @@
         <v>2050</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>34</v>
@@ -4873,68 +4900,68 @@
         <v>38</v>
       </c>
       <c r="F134" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H134" s="27" t="s">
-        <v>218</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H134" s="27"/>
       <c r="I134" s="27"/>
       <c r="J134" s="27"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B135" s="42">
-        <v>2050</v>
-      </c>
-      <c r="C135" s="43" t="s">
+      <c r="A135" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="26">
+        <v>2050</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H135" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="42">
+        <v>2050</v>
+      </c>
+      <c r="C136" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D135" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E135" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F135" s="43" t="s">
+      <c r="D136" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G135" s="42" t="s">
+      <c r="G136" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B136" s="44">
-        <v>2050</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G136" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -4944,7 +4971,7 @@
         <v>2050</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>91</v>
@@ -4970,7 +4997,7 @@
         <v>2050</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>91</v>
@@ -4996,7 +5023,7 @@
         <v>2050</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D139" s="13" t="s">
         <v>91</v>
@@ -5022,7 +5049,7 @@
         <v>2050</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>91</v>
@@ -5048,7 +5075,7 @@
         <v>2050</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D141" s="13" t="s">
         <v>91</v>
@@ -5056,11 +5083,11 @@
       <c r="E141" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F141" s="15" t="s">
-        <v>118</v>
+      <c r="F141" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="G141" s="44" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
@@ -5074,7 +5101,7 @@
         <v>2050</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>91</v>
@@ -5082,11 +5109,11 @@
       <c r="E142" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F142" s="13" t="s">
-        <v>116</v>
+      <c r="F142" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="G142" s="44" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
@@ -5100,7 +5127,7 @@
         <v>2050</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>91</v>
@@ -5126,7 +5153,7 @@
         <v>2050</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>91</v>
@@ -5152,7 +5179,7 @@
         <v>2050</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>91</v>
@@ -5161,10 +5188,10 @@
         <v>38</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G145" s="44" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
@@ -5178,7 +5205,7 @@
         <v>2050</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>91</v>
@@ -5186,15 +5213,15 @@
       <c r="E146" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F146" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
+      <c r="F146" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G146" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
@@ -5204,7 +5231,7 @@
         <v>2050</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>91</v>
@@ -5213,10 +5240,10 @@
         <v>38</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
@@ -5230,7 +5257,7 @@
         <v>2050</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>91</v>
@@ -5239,10 +5266,10 @@
         <v>38</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -5256,7 +5283,7 @@
         <v>2050</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D149" s="13" t="s">
         <v>91</v>
@@ -5282,7 +5309,7 @@
         <v>2050</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>91</v>
@@ -5308,7 +5335,7 @@
         <v>2050</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>91</v>
@@ -5334,7 +5361,7 @@
         <v>2050</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>91</v>
@@ -5360,7 +5387,7 @@
         <v>2050</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D153" s="13" t="s">
         <v>91</v>
@@ -5386,7 +5413,7 @@
         <v>2050</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>91</v>
@@ -5412,7 +5439,7 @@
         <v>2050</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>91</v>
@@ -5426,9 +5453,7 @@
       <c r="G155" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H155" s="15" t="s">
-        <v>220</v>
-      </c>
+      <c r="H155" s="15"/>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
     </row>
@@ -5440,7 +5465,7 @@
         <v>2050</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="D156" s="13" t="s">
         <v>91</v>
@@ -5454,7 +5479,9 @@
       <c r="G156" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H156" s="15"/>
+      <c r="H156" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
     </row>
@@ -5466,7 +5493,7 @@
         <v>2050</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>91</v>
@@ -5485,89 +5512,96 @@
       <c r="J157" s="15"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B158" s="52">
-        <v>2050</v>
-      </c>
-      <c r="C158" s="19" t="s">
+      <c r="A158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="44">
+        <v>2050</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" s="66">
+        <v>2050</v>
+      </c>
+      <c r="C159" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="D158" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="21" t="s">
+      <c r="D159" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E159" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="G158" s="20" t="s">
+      <c r="G159" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="H158" s="21" t="s">
+      <c r="H159" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I158" s="21" t="s">
+      <c r="I159" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="J158" s="21" t="str">
-        <f>_xlfn.CONCAT(B158," Plan")</f>
+      <c r="J159" s="67" t="str">
+        <f>_xlfn.CONCAT(B159," Plan")</f>
         <v>2050 Plan</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" s="49">
-        <v>2035</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G159" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-    </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B160" s="49">
-        <v>2035</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G160" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
+      <c r="A160" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="52">
+        <v>2050</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G160" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H160" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J160" s="21" t="str">
+        <f>_xlfn.CONCAT(B160," Plan Amd1")</f>
+        <v>2050 Plan Amd1</v>
+      </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
@@ -5577,7 +5611,7 @@
         <v>2035</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>181</v>
@@ -5586,14 +5620,12 @@
         <v>182</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G161" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>220</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="H161" s="9"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
@@ -5605,7 +5637,7 @@
         <v>2035</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>181</v>
@@ -5614,10 +5646,10 @@
         <v>182</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G162" s="49" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
@@ -5631,7 +5663,7 @@
         <v>2035</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>181</v>
@@ -5645,131 +5677,131 @@
       <c r="G163" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="H163" s="9"/>
+      <c r="H163" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B164" s="51">
-        <v>2035</v>
-      </c>
-      <c r="C164" s="50" t="s">
+      <c r="A164" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" s="49">
+        <v>2035</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G164" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B165" s="49">
+        <v>2035</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G165" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="51">
+        <v>2035</v>
+      </c>
+      <c r="C166" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D164" s="50" t="s">
+      <c r="D166" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="E164" s="50" t="s">
+      <c r="E166" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="F164" s="50" t="s">
+      <c r="F166" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="G164" s="51" t="s">
+      <c r="G166" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="H164" s="50" t="s">
+      <c r="H166" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I164" s="50" t="s">
+      <c r="I166" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="J164" s="50" t="s">
+      <c r="J166" s="50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B165" s="54">
-        <v>2050</v>
-      </c>
-      <c r="C165" s="53" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="54">
+        <v>2050</v>
+      </c>
+      <c r="C167" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D165" s="53" t="s">
+      <c r="D167" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E165" s="53" t="s">
+      <c r="E167" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="F165" s="53" t="s">
+      <c r="F167" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="G165" s="54" t="s">
+      <c r="G167" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="H165" s="53"/>
-      <c r="I165" s="53"/>
-      <c r="J165" s="53"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B166" s="49">
-        <v>2050</v>
-      </c>
-      <c r="C166" s="9" t="s">
+      <c r="H167" s="53"/>
+      <c r="I167" s="53"/>
+      <c r="J167" s="53"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B168" s="49">
+        <v>2050</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G166" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-    </row>
-    <row r="167" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B167" s="49">
-        <v>2050</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G167" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-    </row>
-    <row r="168" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B168" s="49">
-        <v>2050</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>181</v>
@@ -5778,10 +5810,10 @@
         <v>182</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G168" s="49" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
@@ -5795,7 +5827,7 @@
         <v>2050</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>181</v>
@@ -5809,163 +5841,159 @@
       <c r="G169" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="H169" s="9"/>
+      <c r="H169" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
     <row r="170" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B170" s="51">
-        <v>2050</v>
-      </c>
-      <c r="C170" s="50" t="s">
+      <c r="A170" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170" s="49">
+        <v>2050</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G170" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B171" s="49">
+        <v>2050</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G171" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B172" s="51">
+        <v>2050</v>
+      </c>
+      <c r="C172" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="D170" s="50" t="s">
+      <c r="D172" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="E170" s="50" t="s">
+      <c r="E172" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="F170" s="50" t="s">
+      <c r="F172" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="G170" s="51" t="s">
+      <c r="G172" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="H170" s="50" t="s">
+      <c r="H172" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I170" s="50" t="s">
+      <c r="I172" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="J170" s="50" t="s">
+      <c r="J172" s="50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B171" s="56">
-        <v>2035</v>
-      </c>
-      <c r="C171" s="55" t="s">
+    <row r="173" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B173" s="56">
+        <v>2035</v>
+      </c>
+      <c r="C173" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="D171" s="55" t="s">
+      <c r="D173" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="E171" s="55" t="s">
+      <c r="E173" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="F171" s="55" t="s">
+      <c r="F173" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G171" s="56" t="s">
+      <c r="G173" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="H171" s="55"/>
-      <c r="I171" s="55"/>
-      <c r="J171" s="55"/>
-    </row>
-    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B172" s="48">
-        <v>2035</v>
-      </c>
-      <c r="C172" s="6" t="s">
+      <c r="H173" s="55"/>
+      <c r="I173" s="55"/>
+      <c r="J173" s="55"/>
+    </row>
+    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" s="48">
+        <v>2035</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D174" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E174" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="F174" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G172" s="48" t="s">
+      <c r="G174" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="H172" s="6" t="s">
+      <c r="H174" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-    </row>
-    <row r="173" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B173" s="48">
-        <v>2035</v>
-      </c>
-      <c r="C173" s="6" t="s">
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="48">
+        <v>2035</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G173" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-    </row>
-    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B174" s="58">
-        <v>2035</v>
-      </c>
-      <c r="C174" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="D174" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="E174" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="F174" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="G174" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H174" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I174" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="J174" s="57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B175" s="48">
-        <v>2050</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>181</v>
@@ -5983,35 +6011,39 @@
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
     </row>
-    <row r="176" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B176" s="48">
-        <v>2050</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D176" s="6" t="s">
+    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176" s="58">
+        <v>2035</v>
+      </c>
+      <c r="C176" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D176" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E176" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F176" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="G176" s="48" t="s">
+      <c r="G176" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="H176" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-    </row>
-    <row r="177" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H176" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I176" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="J176" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>26</v>
       </c>
@@ -6019,7 +6051,7 @@
         <v>2050</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>181</v>
@@ -6037,7 +6069,7 @@
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>26</v>
       </c>
@@ -6045,7 +6077,7 @@
         <v>2050</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>181</v>
@@ -6060,17 +6092,71 @@
         <v>195</v>
       </c>
       <c r="H178" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" s="48">
+        <v>2050</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G179" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180" s="48">
+        <v>2050</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G180" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H180" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I178" s="6" t="s">
+      <c r="I180" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="J178" s="6" t="s">
+      <c r="J180" s="6" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
